--- a/biology/Médecine/1719_en_santé_et_médecine/1719_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1719_en_santé_et_médecine/1719_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1719_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1719_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1719 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1719_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1719_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Edward Baynard (en), Health, a poem. Shewing how to procure, preserve, and restore it. To which is annex'd the doctor's decade. The second edition, corrected (OCLC 181804044) — Il était à la fois médecin et poète.
 Johann Christoph Heintze (de), Disputatio inauguralis medica, De Erotomania, von der Kranckheit da man verliebt ist, Rostock
 Thomas Sydenham, Compendium praxeos medicæ Sydenhami : in usum quorundam commodiorem. Cum nonnullis passim emendationibus, atque tandem formulis aliquot medicamentorum additis ex autographo autoris peritissimi, Londres — Édition posthume par William, son fils aîné.
-Michael Bernhard Valentini, Viridarium reformatum, seu regnum vegetabilis Das ist eingerichtet und-Neu-buch vollständiges Kräuter, Worinnen alfo noch nicht geschehen Weise, als Kräutern Vegetabilien CRF, Sträuchen, Bäumen, Bluhmen Erd- und anderer Art Gewachsen, Krafft und beschreiben werden Würckung dergestalter, dass man dieses Werck statt einer Botanischen Bibliotheca haben, jedes zu seiner rechten Haupt Kraut-Art bringen, dessen Nutzen auch in der deutlich Artzney umständlich und finden, Francfort-sur-le-Main, Anton Heinscheidt[1].
+Michael Bernhard Valentini, Viridarium reformatum, seu regnum vegetabilis Das ist eingerichtet und-Neu-buch vollständiges Kräuter, Worinnen alfo noch nicht geschehen Weise, als Kräutern Vegetabilien CRF, Sträuchen, Bäumen, Bluhmen Erd- und anderer Art Gewachsen, Krafft und beschreiben werden Würckung dergestalter, dass man dieses Werck statt einer Botanischen Bibliotheca haben, jedes zu seiner rechten Haupt Kraut-Art bringen, dessen Nutzen auch in der deutlich Artzney umständlich und finden, Francfort-sur-le-Main, Anton Heinscheidt.
 John Thomas Woolhouse,  Dissertationes opthalmicae de cataracta et glaucomate : contra systema sic dictum novum Dnn. Brissaei, Antonii [i.e. Antoine Maître-Jean], Heisteri et aliorum, Francfort-sur-le-Main, Wolffgang Christoph Multzen.</t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1719_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1719_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>19 février :  Ferdinand Christoph Oetinger (de) (mort en 1772), médecin allemand.
 17 novembre : Marie Catherine Biheron (morte en 1786), créatrice française de modèles anatomiques.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1719_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1719_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>26 juillet : Andreas Julius Bötticher (de) (né en 1672), médecin allemand.</t>
         </is>
